--- a/Product Backlog Adj Banking Software- Updated.xlsx
+++ b/Product Backlog Adj Banking Software- Updated.xlsx
@@ -185,9 +185,18 @@
     <t>Error Message on Initial Balance</t>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
+    <t>be reminded that the initial balance must be P 1K minimum if there is time that I manage to place a lesser value upon the account creation</t>
+  </si>
+  <si>
+    <t>Error Message on Missing fields</t>
+  </si>
+  <si>
+    <t>be notified of the missing fields upon creating an account and avoid continuing without enough data supplied.</t>
+  </si>
+  <si>
+    <t>know if the account number and card number I entered were already existing without me having to manually look for them in the data storage.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -196,7 +205,7 @@
         <rFont val="Berlin Sans FB Demi"/>
         <family val="2"/>
       </rPr>
-      <t>-----------------------------------------------------------------||</t>
+      <t>"-----------------------------------------------------------------||</t>
     </r>
     <r>
       <rPr>
@@ -218,18 +227,6 @@
       </rPr>
       <t>||-----------------------------------------------------------------------"</t>
     </r>
-  </si>
-  <si>
-    <t>be reminded that the initial balance must be P 1K minimum if there is time that I manage to place a lesser value upon the account creation</t>
-  </si>
-  <si>
-    <t>Error Message on Missing fields</t>
-  </si>
-  <si>
-    <t>be notified of the missing fields upon creating an account and avoid continuing without enough data supplied.</t>
-  </si>
-  <si>
-    <t>know if the account number and card number I entered were already existing without me having to manually look for them in the data storage.</t>
   </si>
 </sst>
 </file>
@@ -862,7 +859,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +875,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -989,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="26">
         <v>7</v>
@@ -1369,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="31">
         <v>21</v>
@@ -1383,13 +1380,13 @@
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="32">
         <v>22</v>
